--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Tnfsf8-Tnfrsf8.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Tnfsf8-Tnfrsf8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,12 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>Tnfsf8</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6948098418188901</v>
+        <v>0.641663</v>
       </c>
       <c r="H2">
-        <v>0.6948098418188901</v>
+        <v>1.924989</v>
       </c>
       <c r="I2">
-        <v>0.2753921466161372</v>
+        <v>0.1777074226737504</v>
       </c>
       <c r="J2">
-        <v>0.2753921466161372</v>
+        <v>0.1777074226737504</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.292733974050858</v>
+        <v>0.4381976666666667</v>
       </c>
       <c r="N2">
-        <v>0.292733974050858</v>
+        <v>1.314593</v>
       </c>
       <c r="O2">
-        <v>0.1006568554462805</v>
+        <v>0.1110092624743797</v>
       </c>
       <c r="P2">
-        <v>0.1006568554462805</v>
+        <v>0.1110092624743797</v>
       </c>
       <c r="Q2">
-        <v>0.2033944462052917</v>
+        <v>0.2811752293863333</v>
       </c>
       <c r="R2">
-        <v>0.2033944462052917</v>
+        <v>2.530577064477</v>
       </c>
       <c r="S2">
-        <v>0.02772010749298141</v>
+        <v>0.0197271699272359</v>
       </c>
       <c r="T2">
-        <v>0.02772010749298141</v>
+        <v>0.0197271699272359</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,185 +587,1177 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6948098418188901</v>
+        <v>0.641663</v>
       </c>
       <c r="H3">
-        <v>0.6948098418188901</v>
+        <v>1.924989</v>
       </c>
       <c r="I3">
-        <v>0.2753921466161372</v>
+        <v>0.1777074226737504</v>
       </c>
       <c r="J3">
-        <v>0.2753921466161372</v>
+        <v>0.1777074226737504</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>2.61550285445892</v>
+        <v>0.035985</v>
       </c>
       <c r="N3">
-        <v>2.61550285445892</v>
+        <v>0.107955</v>
       </c>
       <c r="O3">
-        <v>0.8993431445537196</v>
+        <v>0.009116133229388611</v>
       </c>
       <c r="P3">
-        <v>0.8993431445537196</v>
+        <v>0.009116133229388612</v>
       </c>
       <c r="Q3">
-        <v>1.817277124583458</v>
+        <v>0.023090243055</v>
       </c>
       <c r="R3">
-        <v>1.817277124583458</v>
+        <v>0.207812187495</v>
       </c>
       <c r="S3">
-        <v>0.2476720391231558</v>
+        <v>0.001620004540945183</v>
       </c>
       <c r="T3">
-        <v>0.2476720391231558</v>
+        <v>0.001620004540945183</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.82817365773373</v>
+        <v>0.641663</v>
       </c>
       <c r="H4">
-        <v>1.82817365773373</v>
+        <v>1.924989</v>
       </c>
       <c r="I4">
-        <v>0.7246078533838628</v>
+        <v>0.1777074226737504</v>
       </c>
       <c r="J4">
-        <v>0.7246078533838628</v>
+        <v>0.1777074226737504</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.292733974050858</v>
+        <v>0.2262733333333333</v>
       </c>
       <c r="N4">
-        <v>0.292733974050858</v>
+        <v>0.67882</v>
       </c>
       <c r="O4">
-        <v>0.1006568554462805</v>
+        <v>0.05732215792481661</v>
       </c>
       <c r="P4">
-        <v>0.1006568554462805</v>
+        <v>0.05732215792481662</v>
       </c>
       <c r="Q4">
-        <v>0.5351685400834878</v>
+        <v>0.1451912258866667</v>
       </c>
       <c r="R4">
-        <v>0.5351685400834878</v>
+        <v>1.30672103298</v>
       </c>
       <c r="S4">
-        <v>0.0729367479532991</v>
+        <v>0.01018657294691686</v>
       </c>
       <c r="T4">
-        <v>0.0729367479532991</v>
+        <v>0.01018657294691686</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.641663</v>
+      </c>
+      <c r="H5">
+        <v>1.924989</v>
+      </c>
+      <c r="I5">
+        <v>0.1777074226737504</v>
+      </c>
+      <c r="J5">
+        <v>0.1777074226737504</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.4718716666666666</v>
+      </c>
+      <c r="N5">
+        <v>1.415615</v>
+      </c>
+      <c r="O5">
+        <v>0.119539946658524</v>
+      </c>
+      <c r="P5">
+        <v>0.119539946658524</v>
+      </c>
+      <c r="Q5">
+        <v>0.3027825892483333</v>
+      </c>
+      <c r="R5">
+        <v>2.725043303235</v>
+      </c>
+      <c r="S5">
+        <v>0.0212431358272439</v>
+      </c>
+      <c r="T5">
+        <v>0.0212431358272439</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.641663</v>
+      </c>
+      <c r="H6">
+        <v>1.924989</v>
+      </c>
+      <c r="I6">
+        <v>0.1777074226737504</v>
+      </c>
+      <c r="J6">
+        <v>0.1777074226737504</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2.775069666666667</v>
+      </c>
+      <c r="N6">
+        <v>8.325209000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.7030124997128909</v>
+      </c>
+      <c r="P6">
+        <v>0.703012499712891</v>
+      </c>
+      <c r="Q6">
+        <v>1.780659527522334</v>
+      </c>
+      <c r="R6">
+        <v>16.025935747701</v>
+      </c>
+      <c r="S6">
+        <v>0.1249305394314085</v>
+      </c>
+      <c r="T6">
+        <v>0.1249305394314086</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.9853</v>
+      </c>
+      <c r="H7">
+        <v>2.9559</v>
+      </c>
+      <c r="I7">
+        <v>0.2728770765346393</v>
+      </c>
+      <c r="J7">
+        <v>0.2728770765346393</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.4381976666666667</v>
+      </c>
+      <c r="N7">
+        <v>1.314593</v>
+      </c>
+      <c r="O7">
+        <v>0.1110092624743797</v>
+      </c>
+      <c r="P7">
+        <v>0.1110092624743797</v>
+      </c>
+      <c r="Q7">
+        <v>0.4317561609666667</v>
+      </c>
+      <c r="R7">
+        <v>3.8858054487</v>
+      </c>
+      <c r="S7">
+        <v>0.03029188301227519</v>
+      </c>
+      <c r="T7">
+        <v>0.03029188301227518</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.9853</v>
+      </c>
+      <c r="H8">
+        <v>2.9559</v>
+      </c>
+      <c r="I8">
+        <v>0.2728770765346393</v>
+      </c>
+      <c r="J8">
+        <v>0.2728770765346393</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.035985</v>
+      </c>
+      <c r="N8">
+        <v>0.107955</v>
+      </c>
+      <c r="O8">
+        <v>0.009116133229388611</v>
+      </c>
+      <c r="P8">
+        <v>0.009116133229388612</v>
+      </c>
+      <c r="Q8">
+        <v>0.0354560205</v>
+      </c>
+      <c r="R8">
+        <v>0.3191041844999999</v>
+      </c>
+      <c r="S8">
+        <v>0.002487583784935845</v>
+      </c>
+      <c r="T8">
+        <v>0.002487583784935845</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.9853</v>
+      </c>
+      <c r="H9">
+        <v>2.9559</v>
+      </c>
+      <c r="I9">
+        <v>0.2728770765346393</v>
+      </c>
+      <c r="J9">
+        <v>0.2728770765346393</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.2262733333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.67882</v>
+      </c>
+      <c r="O9">
+        <v>0.05732215792481661</v>
+      </c>
+      <c r="P9">
+        <v>0.05732215792481662</v>
+      </c>
+      <c r="Q9">
+        <v>0.2229471153333333</v>
+      </c>
+      <c r="R9">
+        <v>2.006524038</v>
+      </c>
+      <c r="S9">
+        <v>0.01564190287518086</v>
+      </c>
+      <c r="T9">
+        <v>0.01564190287518086</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.9853</v>
+      </c>
+      <c r="H10">
+        <v>2.9559</v>
+      </c>
+      <c r="I10">
+        <v>0.2728770765346393</v>
+      </c>
+      <c r="J10">
+        <v>0.2728770765346393</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.4718716666666666</v>
+      </c>
+      <c r="N10">
+        <v>1.415615</v>
+      </c>
+      <c r="O10">
+        <v>0.119539946658524</v>
+      </c>
+      <c r="P10">
+        <v>0.119539946658524</v>
+      </c>
+      <c r="Q10">
+        <v>0.4649351531666666</v>
+      </c>
+      <c r="R10">
+        <v>4.184416378499999</v>
+      </c>
+      <c r="S10">
+        <v>0.03261971117328476</v>
+      </c>
+      <c r="T10">
+        <v>0.03261971117328475</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.82817365773373</v>
-      </c>
-      <c r="H5">
-        <v>1.82817365773373</v>
-      </c>
-      <c r="I5">
-        <v>0.7246078533838628</v>
-      </c>
-      <c r="J5">
-        <v>0.7246078533838628</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>2.61550285445892</v>
-      </c>
-      <c r="N5">
-        <v>2.61550285445892</v>
-      </c>
-      <c r="O5">
-        <v>0.8993431445537196</v>
-      </c>
-      <c r="P5">
-        <v>0.8993431445537196</v>
-      </c>
-      <c r="Q5">
-        <v>4.781593420249175</v>
-      </c>
-      <c r="R5">
-        <v>4.781593420249175</v>
-      </c>
-      <c r="S5">
-        <v>0.6516711054305637</v>
-      </c>
-      <c r="T5">
-        <v>0.6516711054305637</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.9853</v>
+      </c>
+      <c r="H11">
+        <v>2.9559</v>
+      </c>
+      <c r="I11">
+        <v>0.2728770765346393</v>
+      </c>
+      <c r="J11">
+        <v>0.2728770765346393</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.775069666666667</v>
+      </c>
+      <c r="N11">
+        <v>8.325209000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.7030124997128909</v>
+      </c>
+      <c r="P11">
+        <v>0.703012499712891</v>
+      </c>
+      <c r="Q11">
+        <v>2.734276142566667</v>
+      </c>
+      <c r="R11">
+        <v>24.6084852831</v>
+      </c>
+      <c r="S11">
+        <v>0.1918359956889626</v>
+      </c>
+      <c r="T11">
+        <v>0.1918359956889626</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.930825666666667</v>
+      </c>
+      <c r="H12">
+        <v>5.792477</v>
+      </c>
+      <c r="I12">
+        <v>0.5347387224378828</v>
+      </c>
+      <c r="J12">
+        <v>0.5347387224378828</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.4381976666666667</v>
+      </c>
+      <c r="N12">
+        <v>1.314593</v>
+      </c>
+      <c r="O12">
+        <v>0.1110092624743797</v>
+      </c>
+      <c r="P12">
+        <v>0.1110092624743797</v>
+      </c>
+      <c r="Q12">
+        <v>0.8460833018734445</v>
+      </c>
+      <c r="R12">
+        <v>7.614749716861001</v>
+      </c>
+      <c r="S12">
+        <v>0.05936095119432143</v>
+      </c>
+      <c r="T12">
+        <v>0.05936095119432143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.930825666666667</v>
+      </c>
+      <c r="H13">
+        <v>5.792477</v>
+      </c>
+      <c r="I13">
+        <v>0.5347387224378828</v>
+      </c>
+      <c r="J13">
+        <v>0.5347387224378828</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.035985</v>
+      </c>
+      <c r="N13">
+        <v>0.107955</v>
+      </c>
+      <c r="O13">
+        <v>0.009116133229388611</v>
+      </c>
+      <c r="P13">
+        <v>0.009116133229388612</v>
+      </c>
+      <c r="Q13">
+        <v>0.06948076161499998</v>
+      </c>
+      <c r="R13">
+        <v>0.6253268545349999</v>
+      </c>
+      <c r="S13">
+        <v>0.004874749436656796</v>
+      </c>
+      <c r="T13">
+        <v>0.004874749436656797</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.930825666666667</v>
+      </c>
+      <c r="H14">
+        <v>5.792477</v>
+      </c>
+      <c r="I14">
+        <v>0.5347387224378828</v>
+      </c>
+      <c r="J14">
+        <v>0.5347387224378828</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.2262733333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.67882</v>
+      </c>
+      <c r="O14">
+        <v>0.05732215792481661</v>
+      </c>
+      <c r="P14">
+        <v>0.05732215792481662</v>
+      </c>
+      <c r="Q14">
+        <v>0.4368943596822222</v>
+      </c>
+      <c r="R14">
+        <v>3.93204923714</v>
+      </c>
+      <c r="S14">
+        <v>0.03065237749609899</v>
+      </c>
+      <c r="T14">
+        <v>0.030652377496099</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.930825666666667</v>
+      </c>
+      <c r="H15">
+        <v>5.792477</v>
+      </c>
+      <c r="I15">
+        <v>0.5347387224378828</v>
+      </c>
+      <c r="J15">
+        <v>0.5347387224378828</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.4718716666666666</v>
+      </c>
+      <c r="N15">
+        <v>1.415615</v>
+      </c>
+      <c r="O15">
+        <v>0.119539946658524</v>
+      </c>
+      <c r="P15">
+        <v>0.119539946658524</v>
+      </c>
+      <c r="Q15">
+        <v>0.9111019253727777</v>
+      </c>
+      <c r="R15">
+        <v>8.199917328354999</v>
+      </c>
+      <c r="S15">
+        <v>0.06392263835647179</v>
+      </c>
+      <c r="T15">
+        <v>0.06392263835647179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.930825666666667</v>
+      </c>
+      <c r="H16">
+        <v>5.792477</v>
+      </c>
+      <c r="I16">
+        <v>0.5347387224378828</v>
+      </c>
+      <c r="J16">
+        <v>0.5347387224378828</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.775069666666667</v>
+      </c>
+      <c r="N16">
+        <v>8.325209000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.7030124997128909</v>
+      </c>
+      <c r="P16">
+        <v>0.703012499712891</v>
+      </c>
+      <c r="Q16">
+        <v>5.358175739188112</v>
+      </c>
+      <c r="R16">
+        <v>48.22358165269301</v>
+      </c>
+      <c r="S16">
+        <v>0.3759280059543337</v>
+      </c>
+      <c r="T16">
+        <v>0.3759280059543338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.05299466666666666</v>
+      </c>
+      <c r="H17">
+        <v>0.158984</v>
+      </c>
+      <c r="I17">
+        <v>0.01467677835372749</v>
+      </c>
+      <c r="J17">
+        <v>0.01467677835372749</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.4381976666666667</v>
+      </c>
+      <c r="N17">
+        <v>1.314593</v>
+      </c>
+      <c r="O17">
+        <v>0.1110092624743797</v>
+      </c>
+      <c r="P17">
+        <v>0.1110092624743797</v>
+      </c>
+      <c r="Q17">
+        <v>0.02322213927911111</v>
+      </c>
+      <c r="R17">
+        <v>0.208999253512</v>
+      </c>
+      <c r="S17">
+        <v>0.00162925834054723</v>
+      </c>
+      <c r="T17">
+        <v>0.00162925834054723</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.05299466666666666</v>
+      </c>
+      <c r="H18">
+        <v>0.158984</v>
+      </c>
+      <c r="I18">
+        <v>0.01467677835372749</v>
+      </c>
+      <c r="J18">
+        <v>0.01467677835372749</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.035985</v>
+      </c>
+      <c r="N18">
+        <v>0.107955</v>
+      </c>
+      <c r="O18">
+        <v>0.009116133229388611</v>
+      </c>
+      <c r="P18">
+        <v>0.009116133229388612</v>
+      </c>
+      <c r="Q18">
+        <v>0.00190701308</v>
+      </c>
+      <c r="R18">
+        <v>0.01716311772</v>
+      </c>
+      <c r="S18">
+        <v>0.0001337954668507867</v>
+      </c>
+      <c r="T18">
+        <v>0.0001337954668507867</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.05299466666666666</v>
+      </c>
+      <c r="H19">
+        <v>0.158984</v>
+      </c>
+      <c r="I19">
+        <v>0.01467677835372749</v>
+      </c>
+      <c r="J19">
+        <v>0.01467677835372749</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.2262733333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.67882</v>
+      </c>
+      <c r="O19">
+        <v>0.05732215792481661</v>
+      </c>
+      <c r="P19">
+        <v>0.05732215792481662</v>
+      </c>
+      <c r="Q19">
+        <v>0.01199127987555555</v>
+      </c>
+      <c r="R19">
+        <v>0.10792151888</v>
+      </c>
+      <c r="S19">
+        <v>0.0008413046066198972</v>
+      </c>
+      <c r="T19">
+        <v>0.0008413046066198973</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.05299466666666666</v>
+      </c>
+      <c r="H20">
+        <v>0.158984</v>
+      </c>
+      <c r="I20">
+        <v>0.01467677835372749</v>
+      </c>
+      <c r="J20">
+        <v>0.01467677835372749</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.4718716666666666</v>
+      </c>
+      <c r="N20">
+        <v>1.415615</v>
+      </c>
+      <c r="O20">
+        <v>0.119539946658524</v>
+      </c>
+      <c r="P20">
+        <v>0.119539946658524</v>
+      </c>
+      <c r="Q20">
+        <v>0.02500668168444444</v>
+      </c>
+      <c r="R20">
+        <v>0.22506013516</v>
+      </c>
+      <c r="S20">
+        <v>0.001754461301523564</v>
+      </c>
+      <c r="T20">
+        <v>0.001754461301523564</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.05299466666666666</v>
+      </c>
+      <c r="H21">
+        <v>0.158984</v>
+      </c>
+      <c r="I21">
+        <v>0.01467677835372749</v>
+      </c>
+      <c r="J21">
+        <v>0.01467677835372749</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.775069666666667</v>
+      </c>
+      <c r="N21">
+        <v>8.325209000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.7030124997128909</v>
+      </c>
+      <c r="P21">
+        <v>0.703012499712891</v>
+      </c>
+      <c r="Q21">
+        <v>0.1470638919617778</v>
+      </c>
+      <c r="R21">
+        <v>1.323575027656</v>
+      </c>
+      <c r="S21">
+        <v>0.01031795863818601</v>
+      </c>
+      <c r="T21">
+        <v>0.01031795863818601</v>
       </c>
     </row>
   </sheetData>
